--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,175 +49,205 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>toilet</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
     <t>people</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>food</t>
@@ -578,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6746575342465754</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C3">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D3">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,31 +695,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9137931034482759</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3866666666666667</v>
+        <v>0.36</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,31 +745,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2461240310077519</v>
+        <v>0.251937984496124</v>
       </c>
       <c r="C5">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,277 +795,253 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.00994431185361973</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>618</v>
-      </c>
-      <c r="E6">
-        <v>0.96</v>
-      </c>
-      <c r="F6">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2489</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8503937007874016</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.825</v>
+        <v>0.8515625</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7579617834394905</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L8">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7555555555555555</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.73</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.723404255319149</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7222222222222222</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6926406926406926</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L13">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6190476190476191</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,177 +1053,177 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.5902140672782875</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L15">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.5671641791044776</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.5538057742782152</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L17">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="M17">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>170</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L18">
+        <v>66</v>
+      </c>
+      <c r="M18">
+        <v>66</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>28</v>
-      </c>
-      <c r="K18">
-        <v>0.5520833333333334</v>
-      </c>
-      <c r="L18">
-        <v>159</v>
-      </c>
-      <c r="M18">
-        <v>166</v>
-      </c>
-      <c r="N18">
-        <v>0.96</v>
-      </c>
-      <c r="O18">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.543859649122807</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5402298850574713</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5319148936170213</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,151 +1235,151 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.4050632911392405</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L23">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.3726415094339622</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.3381995133819951</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L25">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M25">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>272</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.308641975308642</v>
+        <v>0.5587467362924282</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.3076923076923077</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.2869565217391304</v>
+        <v>0.4375</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,47 +1417,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.2708333333333333</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.2653061224489796</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,177 +1469,177 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.2611464968152866</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.2311435523114355</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>316</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.2309278350515464</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L33">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="M33">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>373</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.2260869565217391</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="L34">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>267</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.221875</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="L35">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>249</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.2206572769953052</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.218978102189781</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,47 +1651,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2170542635658915</v>
+        <v>0.2893081761006289</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2097902097902098</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1697,111 +1703,111 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2074408117249154</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L40">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>703</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.1966480446927374</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L41">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>719</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.1954887218045113</v>
+        <v>0.2627737226277372</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.1924075275794938</v>
+        <v>0.2511627906976744</v>
       </c>
       <c r="L43">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="M43">
-        <v>618</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2489</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1809,25 +1815,25 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.1905660377358491</v>
+        <v>0.247787610619469</v>
       </c>
       <c r="L44">
-        <v>404</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>427</v>
+        <v>28</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1716</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1835,25 +1841,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1824104234527687</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>251</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1861,13 +1867,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1818181818181818</v>
+        <v>0.2379807692307692</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1879,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>135</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1887,13 +1893,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1768707482993197</v>
+        <v>0.2378223495702006</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1905,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>121</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1913,25 +1919,25 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1716814159292036</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L48">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>468</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1939,25 +1945,25 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1710730948678071</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="L49">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="M49">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>533</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1965,13 +1971,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1565217391304348</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1983,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>194</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1991,25 +1997,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1525423728813559</v>
+        <v>0.2192393736017897</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>200</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2017,25 +2023,25 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1428571428571428</v>
+        <v>0.2139917695473251</v>
       </c>
       <c r="L52">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>228</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2043,25 +2049,25 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1325581395348837</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L53">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>746</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2069,13 +2075,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1174377224199288</v>
+        <v>0.211038961038961</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2095,25 +2101,25 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1120851596743895</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="L55">
-        <v>358</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2836</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2121,13 +2127,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.08333333333333333</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>275</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2147,25 +2153,25 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.07865168539325842</v>
+        <v>0.1997780244173141</v>
       </c>
       <c r="L57">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="M57">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1066</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2173,25 +2179,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.06679035250463822</v>
+        <v>0.1978534764349043</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>424</v>
       </c>
       <c r="M58">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="N58">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>503</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2199,25 +2205,285 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.05120167189132706</v>
+        <v>0.1943997425168973</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>604</v>
       </c>
       <c r="M59">
-        <v>60</v>
+        <v>604</v>
       </c>
       <c r="N59">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>908</v>
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K60">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="L60">
+        <v>105</v>
+      </c>
+      <c r="M60">
+        <v>105</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61">
+        <v>0.1797752808988764</v>
+      </c>
+      <c r="L61">
+        <v>48</v>
+      </c>
+      <c r="M61">
+        <v>48</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62">
+        <v>0.1679506933744222</v>
+      </c>
+      <c r="L62">
+        <v>109</v>
+      </c>
+      <c r="M62">
+        <v>110</v>
+      </c>
+      <c r="N62">
+        <v>0.99</v>
+      </c>
+      <c r="O62">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63">
+        <v>0.1487889273356401</v>
+      </c>
+      <c r="L63">
+        <v>129</v>
+      </c>
+      <c r="M63">
+        <v>129</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64">
+        <v>0.1208997188378632</v>
+      </c>
+      <c r="L64">
+        <v>387</v>
+      </c>
+      <c r="M64">
+        <v>387</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65">
+        <v>0.1138790035587189</v>
+      </c>
+      <c r="L65">
+        <v>32</v>
+      </c>
+      <c r="M65">
+        <v>32</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66">
+        <v>0.08440999138673558</v>
+      </c>
+      <c r="L66">
+        <v>98</v>
+      </c>
+      <c r="M66">
+        <v>98</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67">
+        <v>0.08440366972477065</v>
+      </c>
+      <c r="L67">
+        <v>46</v>
+      </c>
+      <c r="M67">
+        <v>46</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="L68">
+        <v>28</v>
+      </c>
+      <c r="M68">
+        <v>28</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K69">
+        <v>0.05578512396694215</v>
+      </c>
+      <c r="L69">
+        <v>54</v>
+      </c>
+      <c r="M69">
+        <v>54</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
